--- a/Misc Datasets/Strictly Data.xlsx
+++ b/Misc Datasets/Strictly Data.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zomalex-my.sharepoint.com/personal/mark_wilcock_zomalex_co_uk/Documents/Courses/Lab - Strictly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{A0BED96C-0442-4659-A4A8-18AC04C94672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010330AF-AE1C-4D18-801D-FF79FDE12B10}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{A0BED96C-0442-4659-A4A8-18AC04C94672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B70213-D6B2-4929-91CE-8E59D5E99FBE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87E2AD7B-C6C6-4DF9-A008-5B1D13BB722E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{87E2AD7B-C6C6-4DF9-A008-5B1D13BB722E}"/>
   </bookViews>
   <sheets>
     <sheet name="Couples" sheetId="6" r:id="rId1"/>
-    <sheet name="Consolidated" sheetId="5" r:id="rId2"/>
-    <sheet name="Week 1" sheetId="1" r:id="rId3"/>
-    <sheet name="Week 2" sheetId="2" r:id="rId4"/>
-    <sheet name="Week 3_ Movie Week" sheetId="3" r:id="rId5"/>
-    <sheet name="Week 4" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
-    <sheet name="Notes" sheetId="8" r:id="rId8"/>
+    <sheet name="Judges" sheetId="9" r:id="rId2"/>
+    <sheet name="Consolidated" sheetId="5" r:id="rId3"/>
+    <sheet name="Week 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Week 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Week 3_ Movie Week" sheetId="3" r:id="rId6"/>
+    <sheet name="Week 4" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId8"/>
+    <sheet name="Notes" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Consolidated!$A$1:$D$58</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Week 1'!$A$1:$D$16</definedName>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">'Couples'!$A$1:$D$16</definedName>
-    <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Week 2'!$A$1:$E$16</definedName>
-    <definedName name="ExternalData_3" localSheetId="4" hidden="1">'Week 3_ Movie Week'!$A$1:$G$15</definedName>
-    <definedName name="ExternalData_4" localSheetId="5" hidden="1">'Week 4'!$A$1:$E$14</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Consolidated!$A$3:$D$60</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Week 1'!$A$1:$D$16</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">'Couples'!$A$3:$D$18</definedName>
+    <definedName name="ExternalData_2" localSheetId="4" hidden="1">'Week 2'!$A$1:$E$16</definedName>
+    <definedName name="ExternalData_3" localSheetId="5" hidden="1">'Week 3_ Movie Week'!$A$1:$G$15</definedName>
+    <definedName name="ExternalData_4" localSheetId="6" hidden="1">'Week 4'!$A$1:$E$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="227">
   <si>
     <t>Couple</t>
   </si>
@@ -686,13 +687,82 @@
   </si>
   <si>
     <t>Individual judges scores in the charts below (given in parentheses) are listed in this order from left to right: Craig Revel Horwood, Motsi Mabuse, Shirley Ballas, Anton Du Beke.</t>
+  </si>
+  <si>
+    <t>Strictly Judges</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Wikipedia Page</t>
+  </si>
+  <si>
+    <t>Image URL</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Motsi</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Craig Revel Horwood</t>
+  </si>
+  <si>
+    <t>Motsi Mabuse</t>
+  </si>
+  <si>
+    <t>Shirley Ballas</t>
+  </si>
+  <si>
+    <t>Anton Du Beke</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Craig_Revel_Horwood</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Anton_Du_Beke</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/File:Craig_Revel_Horwood.jpg</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Motsi_Mabuse</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/File:2022-06-22-Motsi_Mabuse_LEA_Live_Entertainment_Award_15_-0167.jpg</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Shirley_Ballas</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/File:Anton_Du_Beke_in_2019.png</t>
+  </si>
+  <si>
+    <t>https://ichef.bbci.co.uk/images/ic/480xn/p08xspqm.jpg</t>
+  </si>
+  <si>
+    <t>Strictly Couples</t>
+  </si>
+  <si>
+    <t>Results consolidated over all weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +780,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -732,15 +810,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
@@ -964,89 +1044,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0EF3D372-0FDF-46DA-AF31-556181D89A10}" name="Couples" displayName="Couples" ref="A1:D16" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D16" xr:uid="{0EF3D372-0FDF-46DA-AF31-556181D89A10}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0EF3D372-0FDF-46DA-AF31-556181D89A10}" name="Couples" displayName="Couples" ref="A3:D18" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A3:D18" xr:uid="{0EF3D372-0FDF-46DA-AF31-556181D89A10}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{71C52848-61F1-47C5-A037-181582AB6AA9}" uniqueName="1" name="Celebrity" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{AD03E1A0-E7CC-401E-9A4B-134B6F782482}" uniqueName="2" name="Notability" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{885CEA99-7262-4048-A7E6-1DB4F179D5D5}" uniqueName="3" name="Professional partner" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{4BC4DE3D-D634-4523-9034-52E18FF99DE6}" uniqueName="4" name="Status" queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{71C52848-61F1-47C5-A037-181582AB6AA9}" uniqueName="1" name="Celebrity" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{AD03E1A0-E7CC-401E-9A4B-134B6F782482}" uniqueName="2" name="Notability" queryTableFieldId="2" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{885CEA99-7262-4048-A7E6-1DB4F179D5D5}" uniqueName="3" name="Professional partner" queryTableFieldId="3" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{4BC4DE3D-D634-4523-9034-52E18FF99DE6}" uniqueName="4" name="Status" queryTableFieldId="4" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7D9B6CC6-0520-40C2-B6EC-4E67326C0A76}" name="Results" displayName="Results" ref="A1:F58" tableType="queryTable" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:F58" xr:uid="{7D9B6CC6-0520-40C2-B6EC-4E67326C0A76}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{843D77D7-56DC-42D9-959D-1266B37F23C3}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CACF5DAD-D5D6-497D-9E86-03E906FB1283}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{330F2F81-CC26-4FA2-AE4D-1BAC2456ADB4}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{92EEE3A1-03C6-4454-B575-A10585E85745}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F082FADD-3929-49E3-B829-B9F35F7A1543}" uniqueName="6" name="Result" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F2E0C413-3446-4EA7-8280-D7E479A094E9}" uniqueName="5" name="Week" queryTableFieldId="5" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E4900BC3-57B4-43A0-800F-201C75ACDE38}" name="Judge" displayName="Judge" ref="B2:E6" totalsRowShown="0">
+  <autoFilter ref="B2:E6" xr:uid="{E4900BC3-57B4-43A0-800F-201C75ACDE38}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{96BBB5FD-1514-4F89-BEFF-6518323A32E7}" name="First Name"/>
+    <tableColumn id="2" xr3:uid="{BAAFAD46-26AB-4E31-BF0F-2350EA1A0F3A}" name="Full Name"/>
+    <tableColumn id="3" xr3:uid="{B5A751C9-2372-40B3-91C8-9AE23BF70D20}" name="Wikipedia Page"/>
+    <tableColumn id="4" xr3:uid="{63A9440B-2CC0-4278-8D08-A698A2212025}" name="Image URL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{311ACBE2-E06E-4216-B13B-3D2FBB0D997C}" name="Week_1" displayName="Week_1" ref="A1:F16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:F16" xr:uid="{311ACBE2-E06E-4216-B13B-3D2FBB0D997C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7D9B6CC6-0520-40C2-B6EC-4E67326C0A76}" name="Results" displayName="Results" ref="A3:F60" tableType="queryTable" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="A3:F60" xr:uid="{7D9B6CC6-0520-40C2-B6EC-4E67326C0A76}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{39E3E839-E3C8-463B-BE09-9C1673D15963}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{2A7475B5-2D39-40E6-A6AF-58F28FE36D9C}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{734ED7FF-DE23-4540-B335-BE2D99882E15}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{12C8B792-BFF1-4FF3-B0ED-D0753561C919}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{C2F42362-2CDB-484D-85D2-25ED80BA54C6}" uniqueName="6" name="Result" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{C08C8377-C319-438E-806A-C1335547B582}" uniqueName="5" name="Week" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{843D77D7-56DC-42D9-959D-1266B37F23C3}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{CACF5DAD-D5D6-497D-9E86-03E906FB1283}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{330F2F81-CC26-4FA2-AE4D-1BAC2456ADB4}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{92EEE3A1-03C6-4454-B575-A10585E85745}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{F082FADD-3929-49E3-B829-B9F35F7A1543}" uniqueName="6" name="Result" queryTableFieldId="6" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{F2E0C413-3446-4EA7-8280-D7E479A094E9}" uniqueName="5" name="Week" queryTableFieldId="5" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{57DBD785-C10E-4B2D-9389-13B6C6C4AE9D}" name="Week_2" displayName="Week_2" ref="A1:F16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{311ACBE2-E06E-4216-B13B-3D2FBB0D997C}" name="Week_1" displayName="Week_1" ref="A1:F16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A1:F16" xr:uid="{311ACBE2-E06E-4216-B13B-3D2FBB0D997C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{39E3E839-E3C8-463B-BE09-9C1673D15963}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{2A7475B5-2D39-40E6-A6AF-58F28FE36D9C}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{734ED7FF-DE23-4540-B335-BE2D99882E15}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{12C8B792-BFF1-4FF3-B0ED-D0753561C919}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{C2F42362-2CDB-484D-85D2-25ED80BA54C6}" uniqueName="6" name="Result" queryTableFieldId="6" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{C08C8377-C319-438E-806A-C1335547B582}" uniqueName="5" name="Week" queryTableFieldId="5" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{57DBD785-C10E-4B2D-9389-13B6C6C4AE9D}" name="Week_2" displayName="Week_2" ref="A1:F16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:F16" xr:uid="{57DBD785-C10E-4B2D-9389-13B6C6C4AE9D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5DC1FE8A-C509-47E0-AE49-B08B29254955}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{F745ADAB-0847-4DBE-B9BA-ABA48E500F1E}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{48EB489A-A95C-4B4A-BBE5-471CE226C3D4}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{670A6756-BEBC-41F8-B5C4-D0C59FE6420E}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{02D42FEB-0992-4C45-BB3A-24C79F3DF875}" uniqueName="5" name="Result" queryTableFieldId="5" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{5DC1FE8A-C509-47E0-AE49-B08B29254955}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{F745ADAB-0847-4DBE-B9BA-ABA48E500F1E}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{48EB489A-A95C-4B4A-BBE5-471CE226C3D4}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{670A6756-BEBC-41F8-B5C4-D0C59FE6420E}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{02D42FEB-0992-4C45-BB3A-24C79F3DF875}" uniqueName="5" name="Result" queryTableFieldId="5" dataDxfId="15"/>
     <tableColumn id="6" xr3:uid="{1BAFE8F0-D46B-4657-BDE3-744B5F1DCC46}" uniqueName="6" name="Week" queryTableFieldId="6" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4248C841-8B68-4C67-A2F2-1D729E3C2658}" name="Week_3" displayName="Week_3" ref="A1:G15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G15" xr:uid="{4248C841-8B68-4C67-A2F2-1D729E3C2658}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2DDE930E-C004-4103-AC0A-C080C17A0B1A}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{6B0D4788-2EA0-4CB6-B5F8-4F0C1240D4EC}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{091F6ACC-7CEF-4E29-A713-DC2E718A1372}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{331B3659-217F-4ECA-8E07-A229A77C5744}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{2D71467F-85EB-499C-85D2-579E4AD9BBF4}" uniqueName="6" name="Result" queryTableFieldId="6" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{95757A06-7623-4154-8751-39C427058774}" uniqueName="7" name="Week" queryTableFieldId="8" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{F10C7FCD-A4B0-4440-B2BE-C7E858AD22CE}" uniqueName="5" name="Film" queryTableFieldId="5" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{2DDE930E-C004-4103-AC0A-C080C17A0B1A}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6B0D4788-2EA0-4CB6-B5F8-4F0C1240D4EC}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{091F6ACC-7CEF-4E29-A713-DC2E718A1372}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{331B3659-217F-4ECA-8E07-A229A77C5744}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2D71467F-85EB-499C-85D2-579E4AD9BBF4}" uniqueName="6" name="Result" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{95757A06-7623-4154-8751-39C427058774}" uniqueName="7" name="Week" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{F10C7FCD-A4B0-4440-B2BE-C7E858AD22CE}" uniqueName="5" name="Film" queryTableFieldId="5" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{08C2C60C-65BE-4CF5-9780-F2C858DA38FA}" name="Week_4" displayName="Week_4" ref="A1:F14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{08C2C60C-65BE-4CF5-9780-F2C858DA38FA}" name="Week_4" displayName="Week_4" ref="A1:F14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:F14" xr:uid="{08C2C60C-65BE-4CF5-9780-F2C858DA38FA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94165106-0FE1-49AB-B79A-4A8CB0DB0697}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{6B569FC5-B60E-4383-80E6-67E5F078661B}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{80A74BBC-8F52-4B58-9098-F3FB24628401}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{AC0C3D25-8CA9-45D7-977D-D2DBDC1E04A7}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{9F18F157-C48E-4FD4-BF00-58490BCE8384}" uniqueName="5" name="Result" queryTableFieldId="5" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{716D20FC-8963-4E85-865E-F685B06D7F09}" uniqueName="6" name="Week" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{94165106-0FE1-49AB-B79A-4A8CB0DB0697}" uniqueName="1" name="Couple" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{6B569FC5-B60E-4383-80E6-67E5F078661B}" uniqueName="2" name="Scores" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{80A74BBC-8F52-4B58-9098-F3FB24628401}" uniqueName="3" name="Dance" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AC0C3D25-8CA9-45D7-977D-D2DBDC1E04A7}" uniqueName="4" name="Music" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9F18F157-C48E-4FD4-BF00-58490BCE8384}" uniqueName="5" name="Result" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{716D20FC-8963-4E85-865E-F685B06D7F09}" uniqueName="6" name="Week" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1369,11 +1462,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4F3C20-C978-4E02-84EE-AE003FBC114D}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1384,226 +1475,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1616,11 +1712,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC40800E-1299-4521-8E96-1D6CB1CBF3EC}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{84360AAE-2D26-4A0B-A4A5-FBF28358268C}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{8BDF7717-B8F6-4115-8334-CA327DEBADA9}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{E620DD5C-24DA-4E74-A025-CA7355A681F6}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{61318D8E-A544-43AF-81D2-762A37F435BE}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{7DFE4373-1F05-48C3-B7CA-5FCAC22BD0F4}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{99B0AF15-8585-4C55-8116-46F58B4F9862}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{63861FD0-F136-477C-96AC-5072754EAB12}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{E5DCACF7-8B83-49A6-B6CF-728E617D5A49}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAAE98F-14F2-429D-B6B3-CAE4AC58642E}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,1161 +1840,1166 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E10" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E11" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E18" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F36">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E40" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F40">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D41" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D42" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D46" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D47" t="s">
         <v>121</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="E48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D49" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D50" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E50" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F50">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D51" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D52" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D53" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D54" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="E54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D55" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E55" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F55">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D56" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" t="s">
         <v>137</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D58" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B59" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C59" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D59" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D60" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60">
         <v>4</v>
       </c>
     </row>
@@ -2800,7 +3011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73C8592-3AB8-4E20-98AB-A295235FA187}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -2818,322 +3029,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
@@ -3145,7 +3356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB817ABA-46A3-4AC3-9909-766B1A1474FE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -3163,322 +3374,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
     </row>
@@ -3490,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC12E86E-134C-4AC2-A537-BFF574177FC8}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -3509,22 +3720,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>146</v>
       </c>
       <c r="G1" t="s">
@@ -3532,324 +3743,324 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3862,7 +4073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE06524-74FC-4CA6-96D9-B72F1E90D2B5}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -3880,282 +4091,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
     </row>
@@ -4167,7 +4378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD88B53-9B3E-4884-B75A-9165F3F03084}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4179,7 +4390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCDD1F3-D0B3-4A46-94C6-D52B4D3DCED4}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -4188,7 +4399,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
